--- a/outputs-HGR-r202/test-f__Streptococcaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Streptococcaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,14 +146,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,18 +176,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -194,7 +198,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -205,7 +209,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -216,7 +220,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -227,7 +231,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -238,7 +242,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -249,7 +253,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -260,7 +264,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -271,7 +275,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -282,7 +286,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -293,7 +297,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -304,7 +308,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -315,7 +319,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -326,7 +330,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -337,7 +341,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -348,7 +352,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -359,7 +363,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -370,7 +374,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -381,7 +385,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -392,7 +396,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -403,7 +407,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -414,7 +418,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -425,7 +429,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -436,7 +440,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -447,7 +451,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -458,7 +462,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -469,7 +473,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -480,7 +484,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -491,7 +495,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -502,7 +506,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -513,7 +517,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">

--- a/outputs-HGR-r202/test-f__Streptococcaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Streptococcaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -148,16 +148,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,352 +180,352 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6422.5546610724014</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4094.5597540970334</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5840.9724929303447</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4503.4900173480128</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5527.3995076262818</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5322.4579175880426</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5497.2077339827356</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>9320.3721003090359</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6723.2467083000265</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>9302.8779889828256</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11112.987563362522</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4657.974863404017</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4486.4730165856708</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4622.6759045851941</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4292.3576440969773</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4292.3576440969773</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4292.3576440969773</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4869.0696839106131</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4292.3576440969773</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>9662.041362311038</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5740.2400216305377</v>
       </c>
       <c r="C32">
         <v>1</v>

--- a/outputs-HGR-r202/test-f__Streptococcaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Streptococcaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,22 +146,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,18 +172,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -202,7 +194,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -213,7 +205,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -224,7 +216,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -235,7 +227,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -246,7 +238,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -257,7 +249,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -268,7 +260,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -279,7 +271,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -290,7 +282,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -301,7 +293,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -312,7 +304,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -323,7 +315,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -334,7 +326,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -345,7 +337,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -356,7 +348,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -367,7 +359,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -378,7 +370,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -389,7 +381,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -400,7 +392,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -411,7 +403,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -422,7 +414,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -433,7 +425,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -444,7 +436,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -455,7 +447,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -466,7 +458,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -477,7 +469,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -488,7 +480,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -499,7 +491,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -510,7 +502,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -521,7 +513,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
